--- a/WIP/Users/LucPT/FAP_TestViewpoint_Friend Management_v1.0_EN.xlsx
+++ b/WIP/Users/LucPT/FAP_TestViewpoint_Friend Management_v1.0_EN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin-pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\2015SUMJS01\WIP\Users\LucPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -280,10 +280,10 @@
     <definedName name="_9.1.1._ログ保存方法">#REF!</definedName>
     <definedName name="_9.1.2._ジャーナル処理">#REF!</definedName>
     <definedName name="_A1">'[1]諸定義&amp;保守'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$65</definedName>
-    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$29</definedName>
-    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$49</definedName>
-    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$54</definedName>
+    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$21</definedName>
+    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$38</definedName>
+    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$63</definedName>
     <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="4">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
@@ -318,7 +318,7 @@
     <definedName name="ＰＤ">#REF!</definedName>
     <definedName name="ＰＤ保守">#REF!</definedName>
     <definedName name="ＰＲ">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$23</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles">[8]概略見積（資金）!$A$1:$IS$2</definedName>
     <definedName name="ＰＲ保守">#REF!</definedName>
@@ -556,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="168">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -697,15 +697,6 @@
   </si>
   <si>
     <t>1.2.1.2</t>
-  </si>
-  <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
-    <t>1.2.2.1</t>
-  </si>
-  <si>
-    <t>1.2.2.2</t>
   </si>
   <si>
     <t>Đặc tính chất lượng</t>
@@ -980,30 +971,6 @@
     <t>Chỉ tiêu thể hiện là đang phù hợp ở mức độ như thế nào trong quy cách・quy tắc・tiêu chuẩn (của protocol v.v…)liên quan đến tính linh động</t>
   </si>
   <si>
-    <t>Edit profile screen</t>
-  </si>
-  <si>
-    <t>- Display full item 
-- Display header, footer, suggest bar
-- Text's color is black</t>
-  </si>
-  <si>
-    <t>1.2.2.3</t>
-  </si>
-  <si>
-    <t>1.2.3</t>
-  </si>
-  <si>
-    <t>1.2.3.1</t>
-  </si>
-  <si>
-    <t>1.2.3.2</t>
-  </si>
-  <si>
-    <t>Check display:
--Browser: Firefox, Chrome, IE</t>
-  </si>
-  <si>
     <t>FLY AWAY PLUS</t>
   </si>
   <si>
@@ -1058,24 +1025,6 @@
     <t>Sends request to user</t>
   </si>
   <si>
-    <t>Edit Relationship</t>
-  </si>
-  <si>
-    <t>Click "Edit Relationship".</t>
-  </si>
-  <si>
-    <t>Displays popup.</t>
-  </si>
-  <si>
-    <t>Choose Relationship</t>
-  </si>
-  <si>
-    <t>Click "Change" or press Enter.</t>
-  </si>
-  <si>
-    <t>Closes dialog. Display message “Request has been sent”</t>
-  </si>
-  <si>
     <t>Unfriend</t>
   </si>
   <si>
@@ -1094,82 +1043,63 @@
     <t>Closes popup. Remove friend from list.</t>
   </si>
   <si>
-    <t>1.2.3.3</t>
+    <t>Closes popup. Remove friend from list. Hide all blocked user, user’s posts and comments</t>
+  </si>
+  <si>
+    <t>Tag Friend</t>
+  </si>
+  <si>
+    <t>Type name</t>
+  </si>
+  <si>
+    <t>Type whole or part of friends’ name into textbox.</t>
+  </si>
+  <si>
+    <t>Display friends in suggest menu</t>
+  </si>
+  <si>
+    <t>Choose Friend</t>
+  </si>
+  <si>
+    <t>Click to friend's name who user want to tag or press Arrow then press Enter.</t>
+  </si>
+  <si>
+    <t>Sends notifications to tagged friends.</t>
+  </si>
+  <si>
+    <t>Check display:
+-Browser: Firefox, Chrome</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>1.2.2.1</t>
+  </si>
+  <si>
+    <t>1.2.2.2</t>
+  </si>
+  <si>
+    <t>1.2.2.3</t>
   </si>
   <si>
     <t>1.2.4</t>
   </si>
   <si>
-    <t>Block</t>
-  </si>
-  <si>
     <t>1.2.4.1</t>
   </si>
   <si>
     <t>1.2.4.2</t>
   </si>
   <si>
-    <t>Click "Block".</t>
-  </si>
-  <si>
-    <t>Displays confirm popup “Block this user?”</t>
-  </si>
-  <si>
-    <t>Closes popup. Remove friend from list. Hide all blocked user, user’s posts and comments</t>
-  </si>
-  <si>
-    <t>Tag Friend</t>
-  </si>
-  <si>
-    <t>Type name</t>
-  </si>
-  <si>
-    <t>Type whole or part of friends’ name into textbox.</t>
-  </si>
-  <si>
-    <t>Display friends in suggest menu</t>
-  </si>
-  <si>
-    <t>Choose Friend</t>
-  </si>
-  <si>
-    <t>Click to friend's name who user want to tag or press Arrow then press Enter.</t>
-  </si>
-  <si>
-    <t>Sends notifications to tagged friends.</t>
-  </si>
-  <si>
     <t>1.2.4.3</t>
   </si>
   <si>
-    <t>1.2.5</t>
-  </si>
-  <si>
-    <t>1.2.5.1</t>
-  </si>
-  <si>
-    <t>1.2.5.2</t>
-  </si>
-  <si>
-    <t>1.2.5.3</t>
-  </si>
-  <si>
-    <t>1.2.6</t>
-  </si>
-  <si>
-    <t>1.2.6.1</t>
-  </si>
-  <si>
-    <t>1.2.6.2</t>
-  </si>
-  <si>
-    <t>Follow</t>
-  </si>
-  <si>
-    <t>Click "Follow".</t>
-  </si>
-  <si>
-    <t>Adds followed user to Follow list. Updates activities of followed user to News feed automatically</t>
+    <t>Friend management screen</t>
+  </si>
+  <si>
+    <t>- Display full item 
+- Display header, footer, suggest bar</t>
   </si>
 </sst>
 </file>
@@ -6324,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="109" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D4" s="109"/>
       <c r="E4" s="109"/>
@@ -6333,7 +6263,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
@@ -6341,7 +6271,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="109" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D5" s="109"/>
       <c r="E5" s="109"/>
@@ -6356,7 +6286,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="111" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D6" s="111"/>
       <c r="E6" s="111"/>
@@ -6365,7 +6295,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
@@ -6415,7 +6345,7 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C10" s="101" t="s">
         <v>8</v>
@@ -6429,7 +6359,7 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
@@ -6514,10 +6444,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="E10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6638,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6707,10 +6637,10 @@
         <v>37</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="103.5" customHeight="1">
@@ -6738,7 +6668,7 @@
         <v>40</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1">
@@ -6768,7 +6698,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6787,7 +6717,7 @@
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6799,10 +6729,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
@@ -6815,7 +6745,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6827,22 +6757,22 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1">
       <c r="A15" s="47"/>
       <c r="B15" s="48"/>
       <c r="C15" s="49" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="D15" s="60"/>
       <c r="E15" s="61"/>
       <c r="F15" s="51" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
@@ -6855,13 +6785,13 @@
       <c r="A16" s="47"/>
       <c r="B16" s="48"/>
       <c r="C16" s="49" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="56"/>
       <c r="F16" s="62"/>
       <c r="G16" s="62" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>35</v>
@@ -6873,23 +6803,23 @@
         <v>37</v>
       </c>
       <c r="K16" s="56" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="49" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="56"/>
       <c r="F17" s="62"/>
       <c r="G17" s="62" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -6901,23 +6831,23 @@
         <v>37</v>
       </c>
       <c r="K17" s="56" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="L17" s="62" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" ht="27.75" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="49" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="56"/>
       <c r="F18" s="62"/>
       <c r="G18" s="62" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>35</v>
@@ -6929,22 +6859,22 @@
         <v>37</v>
       </c>
       <c r="K18" s="56" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="L18" s="62" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="44" customFormat="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="48"/>
       <c r="C19" s="49" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="D19" s="60"/>
       <c r="E19" s="61"/>
       <c r="F19" s="51" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
@@ -6953,17 +6883,17 @@
       <c r="K19" s="52"/>
       <c r="L19" s="55"/>
     </row>
-    <row r="20" spans="1:12" s="44" customFormat="1" ht="78" customHeight="1">
+    <row r="20" spans="1:12" s="44" customFormat="1" ht="41.25" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
       <c r="C20" s="49" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="56"/>
       <c r="F20" s="62"/>
       <c r="G20" s="62" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H20" s="49" t="s">
         <v>35</v>
@@ -6975,23 +6905,23 @@
         <v>37</v>
       </c>
       <c r="K20" s="56" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L20" s="62" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A21" s="47"/>
       <c r="B21" s="48"/>
       <c r="C21" s="49" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="56"/>
       <c r="F21" s="62"/>
       <c r="G21" s="62" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H21" s="49" t="s">
         <v>35</v>
@@ -7003,13 +6933,13 @@
         <v>37</v>
       </c>
       <c r="K21" s="56" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L21" s="62" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="44" customFormat="1" ht="27.75" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
       <c r="A22" s="47"/>
       <c r="B22" s="48"/>
       <c r="C22" s="49" t="s">
@@ -7019,7 +6949,7 @@
       <c r="E22" s="56"/>
       <c r="F22" s="62"/>
       <c r="G22" s="62" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="H22" s="49" t="s">
         <v>35</v>
@@ -7031,289 +6961,165 @@
         <v>37</v>
       </c>
       <c r="K22" s="56" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="L22" s="62" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="55"/>
-    </row>
-    <row r="24" spans="1:12" s="44" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="L24" s="62" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="H25" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K25" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="L25" s="62" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62" t="s">
-        <v>162</v>
-      </c>
-      <c r="H26" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="L26" s="62" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="55"/>
-    </row>
-    <row r="28" spans="1:12" s="44" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="H28" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="L28" s="62" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A29" s="47"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="H29" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J29" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="L29" s="62" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62" t="s">
-        <v>162</v>
-      </c>
-      <c r="H30" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="L30" s="62" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="55"/>
-    </row>
-    <row r="32" spans="1:12" s="44" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="H32" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J32" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K32" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="L32" s="62" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="H33" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I33" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J33" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="L33" s="62" t="s">
-        <v>190</v>
-      </c>
+    <row r="23" spans="1:12" s="44" customFormat="1">
+      <c r="A23" s="63"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="73"/>
+    </row>
+    <row r="24" spans="1:12" s="44" customFormat="1">
+      <c r="A24" s="63"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+    </row>
+    <row r="25" spans="1:12" s="44" customFormat="1">
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+    </row>
+    <row r="26" spans="1:12" s="44" customFormat="1">
+      <c r="A26" s="63"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+    </row>
+    <row r="27" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="63"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+    </row>
+    <row r="28" spans="1:12" s="44" customFormat="1">
+      <c r="A28" s="63"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+    </row>
+    <row r="29" spans="1:12" s="44" customFormat="1">
+      <c r="A29" s="63"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+    </row>
+    <row r="30" spans="1:12" s="44" customFormat="1">
+      <c r="A30" s="63"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+    </row>
+    <row r="31" spans="1:12" s="44" customFormat="1">
+      <c r="A31" s="63"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+    </row>
+    <row r="32" spans="1:12" s="44" customFormat="1">
+      <c r="A32" s="63"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+    </row>
+    <row r="33" spans="1:12" s="44" customFormat="1">
+      <c r="A33" s="63"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
     </row>
     <row r="34" spans="1:12" s="44" customFormat="1">
       <c r="A34" s="63"/>
@@ -7326,17 +7132,17 @@
       <c r="H34" s="64"/>
       <c r="I34" s="66"/>
       <c r="J34" s="67"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="73"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
     </row>
     <row r="35" spans="1:12" s="44" customFormat="1">
-      <c r="A35" s="63"/>
-      <c r="B35" s="64"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
       <c r="E35" s="65"/>
       <c r="F35" s="65"/>
-      <c r="G35" s="74"/>
+      <c r="G35" s="70"/>
       <c r="H35" s="64"/>
       <c r="I35" s="66"/>
       <c r="J35" s="67"/>
@@ -7371,23 +7177,23 @@
       <c r="K37" s="71"/>
       <c r="L37" s="71"/>
     </row>
-    <row r="38" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="38" spans="1:12" s="44" customFormat="1">
       <c r="A38" s="63"/>
-      <c r="B38" s="64"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="64"/>
       <c r="D38" s="64"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
     </row>
     <row r="39" spans="1:12" s="44" customFormat="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="64"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="64"/>
       <c r="D39" s="64"/>
       <c r="E39" s="65"/>
@@ -7396,12 +7202,12 @@
       <c r="H39" s="64"/>
       <c r="I39" s="66"/>
       <c r="J39" s="67"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
     </row>
     <row r="40" spans="1:12" s="44" customFormat="1">
       <c r="A40" s="63"/>
-      <c r="B40" s="64"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="64"/>
       <c r="D40" s="64"/>
       <c r="E40" s="65"/>
@@ -7410,12 +7216,12 @@
       <c r="H40" s="64"/>
       <c r="I40" s="66"/>
       <c r="J40" s="67"/>
-      <c r="K40" s="71"/>
+      <c r="K40" s="65"/>
       <c r="L40" s="71"/>
     </row>
     <row r="41" spans="1:12" s="44" customFormat="1">
       <c r="A41" s="63"/>
-      <c r="B41" s="64"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="64"/>
       <c r="D41" s="64"/>
       <c r="E41" s="65"/>
@@ -7424,77 +7230,77 @@
       <c r="H41" s="64"/>
       <c r="I41" s="66"/>
       <c r="J41" s="67"/>
-      <c r="K41" s="71"/>
+      <c r="K41" s="65"/>
       <c r="L41" s="71"/>
     </row>
     <row r="42" spans="1:12" s="44" customFormat="1">
       <c r="A42" s="63"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="65"/>
       <c r="F42" s="65"/>
-      <c r="G42" s="70"/>
+      <c r="G42" s="65"/>
       <c r="H42" s="64"/>
       <c r="I42" s="66"/>
       <c r="J42" s="67"/>
-      <c r="K42" s="71"/>
+      <c r="K42" s="65"/>
       <c r="L42" s="71"/>
     </row>
     <row r="43" spans="1:12" s="44" customFormat="1">
       <c r="A43" s="63"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
       <c r="D43" s="64"/>
       <c r="E43" s="65"/>
       <c r="F43" s="65"/>
-      <c r="G43" s="70"/>
+      <c r="G43" s="65"/>
       <c r="H43" s="64"/>
       <c r="I43" s="66"/>
       <c r="J43" s="67"/>
-      <c r="K43" s="71"/>
+      <c r="K43" s="65"/>
       <c r="L43" s="71"/>
     </row>
     <row r="44" spans="1:12" s="44" customFormat="1">
       <c r="A44" s="63"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="64"/>
       <c r="E44" s="65"/>
       <c r="F44" s="65"/>
-      <c r="G44" s="70"/>
+      <c r="G44" s="65"/>
       <c r="H44" s="64"/>
       <c r="I44" s="66"/>
       <c r="J44" s="67"/>
-      <c r="K44" s="71"/>
+      <c r="K44" s="65"/>
       <c r="L44" s="71"/>
     </row>
     <row r="45" spans="1:12" s="44" customFormat="1">
       <c r="A45" s="63"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="64"/>
       <c r="E45" s="65"/>
       <c r="F45" s="65"/>
-      <c r="G45" s="70"/>
+      <c r="G45" s="65"/>
       <c r="H45" s="64"/>
       <c r="I45" s="66"/>
       <c r="J45" s="67"/>
-      <c r="K45" s="71"/>
+      <c r="K45" s="65"/>
       <c r="L45" s="71"/>
     </row>
     <row r="46" spans="1:12" s="44" customFormat="1">
-      <c r="A46" s="68"/>
-      <c r="B46" s="68"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="64"/>
       <c r="D46" s="64"/>
       <c r="E46" s="65"/>
       <c r="F46" s="65"/>
-      <c r="G46" s="70"/>
+      <c r="G46" s="65"/>
       <c r="H46" s="64"/>
       <c r="I46" s="66"/>
       <c r="J46" s="67"/>
-      <c r="K46" s="71"/>
+      <c r="K46" s="65"/>
       <c r="L46" s="71"/>
     </row>
     <row r="47" spans="1:12" s="44" customFormat="1">
@@ -7504,690 +7310,536 @@
       <c r="D47" s="64"/>
       <c r="E47" s="65"/>
       <c r="F47" s="65"/>
-      <c r="G47" s="70"/>
+      <c r="G47" s="65"/>
       <c r="H47" s="64"/>
       <c r="I47" s="66"/>
       <c r="J47" s="67"/>
-      <c r="K47" s="71"/>
+      <c r="K47" s="65"/>
       <c r="L47" s="71"/>
     </row>
     <row r="48" spans="1:12" s="44" customFormat="1">
       <c r="A48" s="63"/>
-      <c r="B48" s="64"/>
+      <c r="B48" s="72"/>
       <c r="C48" s="64"/>
       <c r="D48" s="64"/>
       <c r="E48" s="65"/>
       <c r="F48" s="65"/>
-      <c r="G48" s="70"/>
+      <c r="G48" s="65"/>
       <c r="H48" s="64"/>
       <c r="I48" s="66"/>
       <c r="J48" s="67"/>
-      <c r="K48" s="71"/>
+      <c r="K48" s="65"/>
       <c r="L48" s="71"/>
     </row>
-    <row r="49" spans="1:12" s="44" customFormat="1">
+    <row r="49" spans="1:13" s="44" customFormat="1">
       <c r="A49" s="63"/>
       <c r="B49" s="72"/>
       <c r="C49" s="64"/>
       <c r="D49" s="64"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="69"/>
-      <c r="L49" s="69"/>
-    </row>
-    <row r="50" spans="1:12" s="44" customFormat="1">
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="71"/>
+    </row>
+    <row r="50" spans="1:13" s="44" customFormat="1">
       <c r="A50" s="63"/>
       <c r="B50" s="72"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
       <c r="E50" s="65"/>
       <c r="F50" s="65"/>
-      <c r="G50" s="70"/>
+      <c r="G50" s="65"/>
       <c r="H50" s="64"/>
       <c r="I50" s="66"/>
       <c r="J50" s="67"/>
       <c r="K50" s="65"/>
       <c r="L50" s="65"/>
     </row>
-    <row r="51" spans="1:12" s="44" customFormat="1">
+    <row r="51" spans="1:13" s="44" customFormat="1">
       <c r="A51" s="63"/>
       <c r="B51" s="72"/>
-      <c r="C51" s="64"/>
+      <c r="C51" s="67"/>
       <c r="D51" s="64"/>
-      <c r="E51" s="65"/>
+      <c r="E51" s="70"/>
       <c r="F51" s="65"/>
-      <c r="G51" s="70"/>
+      <c r="G51" s="65"/>
       <c r="H51" s="64"/>
       <c r="I51" s="66"/>
       <c r="J51" s="67"/>
       <c r="K51" s="65"/>
-      <c r="L51" s="71"/>
-    </row>
-    <row r="52" spans="1:12" s="44" customFormat="1">
+      <c r="L51" s="65"/>
+    </row>
+    <row r="52" spans="1:13" s="44" customFormat="1">
       <c r="A52" s="63"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="64"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="67"/>
       <c r="D52" s="64"/>
-      <c r="E52" s="65"/>
+      <c r="E52" s="70"/>
       <c r="F52" s="65"/>
-      <c r="G52" s="70"/>
+      <c r="G52" s="65"/>
       <c r="H52" s="64"/>
       <c r="I52" s="66"/>
       <c r="J52" s="67"/>
       <c r="K52" s="65"/>
-      <c r="L52" s="71"/>
-    </row>
-    <row r="53" spans="1:12" s="44" customFormat="1">
+      <c r="L52" s="65"/>
+    </row>
+    <row r="53" spans="1:13" s="44" customFormat="1">
       <c r="A53" s="63"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="64"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="67"/>
       <c r="D53" s="64"/>
-      <c r="E53" s="65"/>
+      <c r="E53" s="70"/>
       <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
+      <c r="G53" s="70"/>
       <c r="H53" s="64"/>
       <c r="I53" s="66"/>
       <c r="J53" s="67"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="71"/>
-    </row>
-    <row r="54" spans="1:12" s="44" customFormat="1">
-      <c r="A54" s="63"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="65"/>
+    </row>
+    <row r="54" spans="1:13" s="44" customFormat="1">
+      <c r="A54" s="68"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="67"/>
       <c r="D54" s="64"/>
-      <c r="E54" s="65"/>
+      <c r="E54" s="70"/>
       <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
+      <c r="G54" s="70"/>
       <c r="H54" s="64"/>
       <c r="I54" s="66"/>
       <c r="J54" s="67"/>
       <c r="K54" s="65"/>
-      <c r="L54" s="71"/>
-    </row>
-    <row r="55" spans="1:12" s="44" customFormat="1">
-      <c r="A55" s="63"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
+      <c r="L54" s="65"/>
+    </row>
+    <row r="55" spans="1:13" s="44" customFormat="1">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="64"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
       <c r="H55" s="64"/>
       <c r="I55" s="66"/>
       <c r="J55" s="67"/>
       <c r="K55" s="65"/>
-      <c r="L55" s="71"/>
-    </row>
-    <row r="56" spans="1:12" s="44" customFormat="1">
-      <c r="A56" s="63"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
+      <c r="L55" s="65"/>
+    </row>
+    <row r="56" spans="1:13" s="44" customFormat="1">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="70"/>
       <c r="H56" s="64"/>
       <c r="I56" s="66"/>
       <c r="J56" s="67"/>
       <c r="K56" s="65"/>
-      <c r="L56" s="71"/>
-    </row>
-    <row r="57" spans="1:12" s="44" customFormat="1">
-      <c r="A57" s="63"/>
-      <c r="B57" s="72"/>
-      <c r="C57" s="64"/>
+      <c r="L56" s="65"/>
+    </row>
+    <row r="57" spans="1:13" s="44" customFormat="1">
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="67"/>
       <c r="D57" s="64"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="71"/>
-    </row>
-    <row r="58" spans="1:12" s="44" customFormat="1">
-      <c r="A58" s="63"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="68"/>
+    </row>
+    <row r="58" spans="1:13" s="44" customFormat="1">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="67"/>
       <c r="D58" s="64"/>
-      <c r="E58" s="65"/>
+      <c r="E58" s="75"/>
       <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
+      <c r="G58" s="75"/>
       <c r="H58" s="64"/>
       <c r="I58" s="66"/>
       <c r="J58" s="67"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="71"/>
-    </row>
-    <row r="59" spans="1:12" s="44" customFormat="1">
-      <c r="A59" s="63"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="65"/>
+      <c r="K58" s="75"/>
+      <c r="L58" s="75"/>
+    </row>
+    <row r="59" spans="1:13" s="44" customFormat="1">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="75"/>
       <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
+      <c r="G59" s="75"/>
       <c r="H59" s="64"/>
       <c r="I59" s="66"/>
       <c r="J59" s="67"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="71"/>
-    </row>
-    <row r="60" spans="1:12" s="44" customFormat="1">
-      <c r="A60" s="63"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="64"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="75"/>
+    </row>
+    <row r="60" spans="1:13" s="44" customFormat="1">
+      <c r="A60" s="68"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="67"/>
       <c r="D60" s="64"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="75"/>
       <c r="H60" s="64"/>
       <c r="I60" s="66"/>
       <c r="J60" s="67"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="71"/>
-    </row>
-    <row r="61" spans="1:12" s="44" customFormat="1">
-      <c r="A61" s="63"/>
-      <c r="B61" s="72"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="75"/>
+    </row>
+    <row r="61" spans="1:13" s="44" customFormat="1">
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="75"/>
       <c r="H61" s="64"/>
       <c r="I61" s="66"/>
       <c r="J61" s="67"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="65"/>
-    </row>
-    <row r="62" spans="1:12" s="44" customFormat="1">
-      <c r="A62" s="63"/>
-      <c r="B62" s="72"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="65"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="75"/>
+    </row>
+    <row r="62" spans="1:13" s="44" customFormat="1">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="75"/>
       <c r="H62" s="64"/>
       <c r="I62" s="66"/>
       <c r="J62" s="67"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="65"/>
-    </row>
-    <row r="63" spans="1:12" s="44" customFormat="1">
-      <c r="A63" s="63"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="67"/>
+      <c r="K62" s="76"/>
+      <c r="L62" s="75"/>
+    </row>
+    <row r="63" spans="1:13" s="44" customFormat="1">
+      <c r="A63" s="68"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="64"/>
       <c r="D63" s="64"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
-    </row>
-    <row r="64" spans="1:12" s="44" customFormat="1">
-      <c r="A64" s="63"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="67"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="69"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="37"/>
+    </row>
+    <row r="64" spans="1:13" s="44" customFormat="1">
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="64"/>
       <c r="D64" s="64"/>
-      <c r="E64" s="70"/>
+      <c r="E64" s="75"/>
       <c r="F64" s="65"/>
-      <c r="G64" s="70"/>
+      <c r="G64" s="75"/>
       <c r="H64" s="64"/>
       <c r="I64" s="66"/>
       <c r="J64" s="67"/>
-      <c r="K64" s="71"/>
-      <c r="L64" s="65"/>
-    </row>
-    <row r="65" spans="1:13" s="44" customFormat="1">
-      <c r="A65" s="68"/>
-      <c r="B65" s="68"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="70"/>
+      <c r="K64" s="76"/>
+      <c r="L64" s="75"/>
+      <c r="M64" s="37"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="75"/>
       <c r="F65" s="65"/>
-      <c r="G65" s="70"/>
+      <c r="G65" s="75"/>
       <c r="H65" s="64"/>
       <c r="I65" s="66"/>
       <c r="J65" s="67"/>
-      <c r="K65" s="65"/>
-      <c r="L65" s="65"/>
-    </row>
-    <row r="66" spans="1:13" s="44" customFormat="1">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="65"/>
-      <c r="L66" s="65"/>
-    </row>
-    <row r="67" spans="1:13" s="44" customFormat="1">
-      <c r="A67" s="38"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="68"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="70"/>
+      <c r="K65" s="76"/>
+      <c r="L65" s="75"/>
+      <c r="M65" s="44"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="68"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="69"/>
+      <c r="I66" s="69"/>
+      <c r="J66" s="69"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="68"/>
+    </row>
+    <row r="67" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A67" s="63"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="75"/>
       <c r="H67" s="64"/>
       <c r="I67" s="66"/>
       <c r="J67" s="67"/>
-      <c r="K67" s="65"/>
-      <c r="L67" s="65"/>
-    </row>
-    <row r="68" spans="1:13" s="44" customFormat="1">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="69"/>
-      <c r="H68" s="69"/>
-      <c r="I68" s="69"/>
-      <c r="J68" s="69"/>
-      <c r="K68" s="69"/>
-      <c r="L68" s="68"/>
-    </row>
-    <row r="69" spans="1:13" s="44" customFormat="1">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="75"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="67"/>
-      <c r="K69" s="75"/>
-      <c r="L69" s="75"/>
-    </row>
-    <row r="70" spans="1:13" s="44" customFormat="1">
+      <c r="K67" s="76"/>
+      <c r="L67" s="75"/>
+      <c r="M67" s="37"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="63"/>
+      <c r="B68" s="72"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="67"/>
+      <c r="K68" s="76"/>
+      <c r="L68" s="75"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="68"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="69"/>
+      <c r="J69" s="69"/>
+      <c r="K69" s="69"/>
+      <c r="L69" s="68"/>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="38"/>
       <c r="B70" s="38"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="68"/>
-      <c r="E70" s="75"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="65"/>
       <c r="F70" s="65"/>
-      <c r="G70" s="75"/>
+      <c r="G70" s="65"/>
       <c r="H70" s="64"/>
-      <c r="I70" s="66"/>
-      <c r="J70" s="67"/>
-      <c r="K70" s="76"/>
-      <c r="L70" s="75"/>
-    </row>
-    <row r="71" spans="1:13" s="44" customFormat="1">
-      <c r="A71" s="68"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="75"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="77"/>
+      <c r="K70" s="65"/>
+      <c r="L70" s="65"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="70"/>
       <c r="H71" s="64"/>
       <c r="I71" s="66"/>
       <c r="J71" s="67"/>
-      <c r="K71" s="76"/>
-      <c r="L71" s="75"/>
-    </row>
-    <row r="72" spans="1:13" s="44" customFormat="1">
+      <c r="K71" s="65"/>
+      <c r="L71" s="65"/>
+      <c r="M71" s="44"/>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="38"/>
       <c r="B72" s="38"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="75"/>
-      <c r="F72" s="75"/>
-      <c r="G72" s="75"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="66"/>
-      <c r="J72" s="67"/>
-      <c r="K72" s="76"/>
-      <c r="L72" s="75"/>
-    </row>
-    <row r="73" spans="1:13" s="44" customFormat="1">
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="69"/>
+      <c r="I72" s="69"/>
+      <c r="J72" s="69"/>
+      <c r="K72" s="69"/>
+      <c r="L72" s="68"/>
+    </row>
+    <row r="73" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A73" s="38"/>
       <c r="B73" s="38"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="75"/>
-      <c r="G73" s="75"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="67"/>
-      <c r="K73" s="76"/>
-      <c r="L73" s="75"/>
-    </row>
-    <row r="74" spans="1:13" s="44" customFormat="1">
-      <c r="A74" s="68"/>
-      <c r="B74" s="68"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="69"/>
-      <c r="F74" s="69"/>
-      <c r="G74" s="69"/>
-      <c r="H74" s="69"/>
-      <c r="I74" s="69"/>
-      <c r="J74" s="69"/>
-      <c r="K74" s="69"/>
-      <c r="L74" s="68"/>
-      <c r="M74" s="37"/>
-    </row>
-    <row r="75" spans="1:13" s="44" customFormat="1">
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="37"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="38"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
+      <c r="M74" s="44"/>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="38"/>
       <c r="B75" s="38"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="75"/>
-      <c r="H75" s="64"/>
-      <c r="I75" s="66"/>
-      <c r="J75" s="67"/>
-      <c r="K75" s="76"/>
-      <c r="L75" s="75"/>
-      <c r="M75" s="37"/>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+    </row>
+    <row r="76" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A76" s="38"/>
       <c r="B76" s="38"/>
-      <c r="C76" s="68"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="75"/>
-      <c r="H76" s="64"/>
-      <c r="I76" s="66"/>
-      <c r="J76" s="67"/>
-      <c r="K76" s="76"/>
-      <c r="L76" s="75"/>
-      <c r="M76" s="44"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="37"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="68"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="69"/>
-      <c r="G77" s="69"/>
-      <c r="H77" s="69"/>
-      <c r="I77" s="69"/>
-      <c r="J77" s="69"/>
-      <c r="K77" s="69"/>
-      <c r="L77" s="68"/>
-    </row>
-    <row r="78" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A78" s="63"/>
-      <c r="B78" s="72"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="75"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="75"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="66"/>
-      <c r="J78" s="67"/>
-      <c r="K78" s="76"/>
-      <c r="L78" s="75"/>
-      <c r="M78" s="37"/>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="63"/>
-      <c r="B79" s="72"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="75"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="75"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="66"/>
-      <c r="J79" s="67"/>
-      <c r="K79" s="76"/>
-      <c r="L79" s="75"/>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="68"/>
-      <c r="B80" s="68"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="69"/>
-      <c r="G80" s="69"/>
-      <c r="H80" s="69"/>
-      <c r="I80" s="69"/>
-      <c r="J80" s="69"/>
-      <c r="K80" s="69"/>
-      <c r="L80" s="68"/>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="38"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="65"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="65"/>
-      <c r="H81" s="64"/>
-      <c r="I81" s="64"/>
-      <c r="J81" s="77"/>
-      <c r="K81" s="65"/>
-      <c r="L81" s="65"/>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="38"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="70"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="66"/>
-      <c r="J82" s="67"/>
-      <c r="K82" s="65"/>
-      <c r="L82" s="65"/>
-      <c r="M82" s="44"/>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="38"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="69"/>
-      <c r="F83" s="69"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="69"/>
-      <c r="I83" s="69"/>
-      <c r="J83" s="69"/>
-      <c r="K83" s="69"/>
-      <c r="L83" s="68"/>
-    </row>
-    <row r="84" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A84" s="38"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
-      <c r="L84" s="38"/>
-      <c r="M84" s="37"/>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="38"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="44"/>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="38"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="38"/>
-    </row>
-    <row r="87" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A87" s="38"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38"/>
-      <c r="L87" s="38"/>
-      <c r="M87" s="37"/>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="38"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="38"/>
-      <c r="L88" s="38"/>
-      <c r="M88" s="44"/>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="38"/>
-      <c r="B89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="38"/>
-      <c r="M89" s="44"/>
-    </row>
-    <row r="90" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A90" s="38"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="38"/>
-      <c r="M90" s="37"/>
-    </row>
-    <row r="91" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A91" s="63"/>
-      <c r="B91" s="72"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="38"/>
-      <c r="L91" s="38"/>
-      <c r="M91" s="37"/>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="63"/>
-      <c r="B92" s="64"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="38"/>
-      <c r="K92" s="38"/>
-      <c r="L92" s="38"/>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="38"/>
-      <c r="K93" s="38"/>
-      <c r="L93" s="38"/>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="E94" s="70"/>
-      <c r="F94" s="65"/>
-      <c r="G94" s="70"/>
-      <c r="H94" s="64"/>
-      <c r="I94" s="66"/>
-      <c r="J94" s="67"/>
-      <c r="K94" s="65"/>
-      <c r="L94" s="65"/>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="E95" s="70"/>
-      <c r="F95" s="70"/>
-      <c r="G95" s="70"/>
-      <c r="H95" s="64"/>
-      <c r="I95" s="66"/>
-      <c r="J95" s="67"/>
-      <c r="K95" s="65"/>
-      <c r="L95" s="65"/>
-    </row>
-    <row r="99" ht="37.5" customHeight="1"/>
-    <row r="100" ht="37.5" customHeight="1"/>
-    <row r="101" ht="37.5" customHeight="1"/>
-    <row r="102" ht="37.5" customHeight="1"/>
-    <row r="104" ht="18" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="109" ht="30" customHeight="1"/>
-    <row r="113" ht="44.25" customHeight="1"/>
-    <row r="114" ht="45" customHeight="1"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
+      <c r="M77" s="44"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="44"/>
+    </row>
+    <row r="79" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="37"/>
+    </row>
+    <row r="80" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A80" s="63"/>
+      <c r="B80" s="72"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="37"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="63"/>
+      <c r="B81" s="64"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="E83" s="70"/>
+      <c r="F83" s="65"/>
+      <c r="G83" s="70"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="65"/>
+      <c r="L83" s="65"/>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="E84" s="70"/>
+      <c r="F84" s="70"/>
+      <c r="G84" s="70"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="65"/>
+      <c r="L84" s="65"/>
+    </row>
+    <row r="88" spans="1:12" ht="37.5" customHeight="1"/>
+    <row r="89" spans="1:12" ht="37.5" customHeight="1"/>
+    <row r="90" spans="1:12" ht="37.5" customHeight="1"/>
+    <row r="91" spans="1:12" ht="37.5" customHeight="1"/>
+    <row r="93" spans="1:12" ht="18" customHeight="1"/>
+    <row r="94" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="98" ht="30" customHeight="1"/>
+    <row r="102" ht="44.25" customHeight="1"/>
+    <row r="103" ht="45" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
@@ -8205,19 +7857,19 @@
     <mergeCell ref="K4:K5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I80 I49 I77 I74 I68 I83">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I69 I38 I66 I63 I57 I72">
       <formula1>"Functional, Reliability, Usability, Effectiveness, Maintenance, Flexibility"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J80 J49 J77 J74 J68 J83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J69 J38 J66 J63 J57 J72">
       <formula1>"Requirement, Accuracy, Operation, Standards conformance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H94:H95 H82:H83 H24:H26 H8:H10 H16:H18 H13:H14 H20:H22 H28:H30 H32:H80">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H83:H84 H71:H72 H8:H10 H13:H14 H16:H18 H20:H69">
       <formula1>"Normal,Abnormal,Boundary,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I94:I95 I82 I50:I67 I78:I79 I75:I76 I69:I73 I24:I26 I8:I10 I16:I18 I13:I14 I20:I22 I28:I30 I32:I48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I83:I84 I71 I39:I56 I67:I68 I64:I65 I58:I62 I8:I10 I13:I14 I16:I18 I20:I37">
       <formula1>品質特性</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J69:J73 J75:J76 J82 J78:J79 J50:J67 J94:J95 J24:J26 J8:J10 J16:J18 J13:J14 J20:J22 J28:J30 J32:J48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J58:J62 J64:J65 J71 J67:J68 J39:J56 J83:J84 J8:J10 J13:J14 J16:J18 J20:J37">
       <formula1>INDIRECT($I8)</formula1>
     </dataValidation>
   </dataValidations>
@@ -8232,14 +7884,14 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="78" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -8267,25 +7919,25 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="79" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" s="80" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="I2" s="80" t="s">
         <v>51</v>
-      </c>
-      <c r="G2" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="80" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -8297,70 +7949,70 @@
         <v>37</v>
       </c>
       <c r="E3" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="I3" s="83" t="s">
         <v>56</v>
-      </c>
-      <c r="G3" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="83" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="81" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" s="82"/>
       <c r="D4" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="H4" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="84" t="s">
+      <c r="I4" s="84" t="s">
         <v>62</v>
-      </c>
-      <c r="G4" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="84" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="84" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="81" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" s="82"/>
       <c r="D5" s="83" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="84" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G5" s="82"/>
       <c r="H5" s="84" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I5" s="82"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="81" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="82"/>
       <c r="D6" s="83" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E6" s="82"/>
       <c r="F6" s="82"/>
@@ -8370,7 +8022,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="81" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="82"/>
       <c r="D7" s="82"/>
@@ -8382,7 +8034,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="81" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="82"/>
       <c r="D8" s="82"/>
@@ -8529,7 +8181,7 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="85" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -8537,13 +8189,13 @@
         <v>25</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E4" s="86" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -8552,7 +8204,7 @@
       </c>
       <c r="C5" s="118"/>
       <c r="D5" s="87" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E5" s="87"/>
     </row>
@@ -8562,358 +8214,358 @@
         <v>37</v>
       </c>
       <c r="D6" s="89" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E6" s="89" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="24" customHeight="1">
       <c r="B7" s="115"/>
       <c r="C7" s="88" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D7" s="89" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E7" s="90" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21.75" customHeight="1">
       <c r="B8" s="115"/>
       <c r="C8" s="88" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D8" s="90" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E8" s="90" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="115"/>
       <c r="C9" s="91" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D9" s="92" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E9" s="92" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="23.25" customHeight="1">
       <c r="B10" s="116"/>
       <c r="C10" s="88" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D10" s="90" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E10" s="90" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.25" customHeight="1">
       <c r="B11" s="117" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="118"/>
       <c r="D11" s="87" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E11" s="87"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="114"/>
       <c r="C12" s="93" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" s="94" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E12" s="94" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="115"/>
       <c r="C13" s="88" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D13" s="89" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E13" s="89" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="38.25">
       <c r="B14" s="115"/>
       <c r="C14" s="88" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" s="89" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E14" s="90" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="116"/>
       <c r="C15" s="93" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D15" s="94" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E15" s="94"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="117" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16" s="118"/>
       <c r="D16" s="87" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E16" s="87"/>
     </row>
     <row r="17" spans="2:5" ht="25.5">
       <c r="B17" s="114"/>
       <c r="C17" s="88" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D17" s="90" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E17" s="89" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="25.5">
       <c r="B18" s="115"/>
       <c r="C18" s="93" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D18" s="95" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E18" s="94"/>
     </row>
     <row r="19" spans="2:5" ht="38.25">
       <c r="B19" s="115"/>
       <c r="C19" s="88" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D19" s="90" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E19" s="90" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="115"/>
       <c r="C20" s="93" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D20" s="94" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E20" s="94"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="116"/>
       <c r="C21" s="88" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D21" s="89" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E21" s="89"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="117" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C22" s="118"/>
       <c r="D22" s="87" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E22" s="87"/>
     </row>
     <row r="23" spans="2:5" ht="51">
       <c r="B23" s="114"/>
       <c r="C23" s="88" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D23" s="90" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E23" s="89" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="25.5">
       <c r="B24" s="115"/>
       <c r="C24" s="88" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D24" s="89" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E24" s="90" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="116"/>
       <c r="C25" s="93" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D25" s="94" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E25" s="94"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="117" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C26" s="118"/>
       <c r="D26" s="87" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E26" s="87"/>
     </row>
     <row r="27" spans="2:5" ht="127.5">
       <c r="B27" s="114"/>
       <c r="C27" s="88" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D27" s="89" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E27" s="90" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="115"/>
       <c r="C28" s="93" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D28" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E28" s="94" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="115"/>
       <c r="C29" s="88" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D29" s="89" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E29" s="89" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="115"/>
       <c r="C30" s="88" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D30" s="89" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E30" s="89" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="116"/>
       <c r="C31" s="93" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D31" s="94" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E31" s="94"/>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="117" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C32" s="118"/>
       <c r="D32" s="87" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E32" s="87"/>
     </row>
     <row r="33" spans="2:5" ht="38.25">
       <c r="B33" s="114"/>
       <c r="C33" s="96" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D33" s="97" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E33" s="98" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="115"/>
       <c r="C34" s="91" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D34" s="92" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E34" s="92" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="115"/>
       <c r="C35" s="93" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D35" s="94" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E35" s="94"/>
     </row>
     <row r="36" spans="2:5" ht="25.5">
       <c r="B36" s="115"/>
       <c r="C36" s="88" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D36" s="89" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E36" s="90" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="116"/>
       <c r="C37" s="93" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D37" s="94" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E37" s="94" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
